--- a/tests/validation_case/vitamin_validation_case.xlsx
+++ b/tests/validation_case/vitamin_validation_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1213">
   <si>
     <t xml:space="preserve">Supplementary data 1. Statistics of the modules determined using the Louvian algorithm of the 0.35 cutoff SparCC network</t>
   </si>
@@ -1026,6 +1026,2592 @@
   </si>
   <si>
     <t xml:space="preserve">RS_GCF_014202505.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__Armatimonas;s__Armatimonas rosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__Armatimonas;s__Armatimonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903859705.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__CAIXIX01;s__CAIXIX01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000374545.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__Negativicutes;o__Selenomonadales;f__Sporomusaceae;g__Anaeromusa;s__Anaeromusa acidaminophila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Firmicutes_C;c__Negativicutes;o__Anaeromusales;f__Anaeromusaceae;g__Anaeromusa;s__Anaeromusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011056185.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__CSP1-3;c__CSP1-3;o__CSP1-3;f__HRBIN32;g__SpSt-150;s__SpSt-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012518355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__UBA11051;g__JAAYSP01;s__JAAYSP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000427095.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__Chthonomonas;s__Chthonomonas calidirosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__Chthonomonas;s__Chthonomonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013203665.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Cloacimonadota;c__Cloacimonadia;o__Cloacimonadales;f__TCS61;g__JABMPU01;s__JABMPU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013178155.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__JABLXH01;g__JABLXH01;s__JABLXH01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903910385.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__CAIVZM01;s__CAIVZM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011053695.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__HRBIN16;o__HRBIN16;f__HRBIN16;g__HRBIN16;s__HRBIN16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012517255.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__Chthonomonadales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__CAJBBX01;g__JAAYVH01;s__JAAYVH01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903928345.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__CAIYQO01;o__CAIYQO01;f__CAIYQO01;g__CAIYQO01;s__CAIYQO01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002335425.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Fimbriimonadia;o__Fimbriimonadales;f__Fimbriimonadaceae;g__UBA2017;s__UBA2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903885605.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__CAJBBX01;g__CAJBBX01;s__CAJBBX01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903919615.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003574315.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Armatimonadia;o__Capsulimonadales;f__Capsulimonadaceae;g__Capsulimonas;s__Capsulimonas corticalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Capsulimonadaceae;g__Capsulimonas;s__Capsulimonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011055025.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Fimbriimonadia;o__Fimbriimonadales;f__GBS-DC;g__HRBIN15;s__HRBIN15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013314755.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013314775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__JABUFB01;g__JABUFB01;s__JABUFB01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903868795.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Verrucomicrobia;c__Spartobacteria;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Verrucomicrobiota;c__Verrucomicrobiae;o__Chthoniobacterales;f__UBA6821;g__UBA6821;s__UBA6821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_902810715.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__UBA9087;o__UBA10029;f__UBA10029;g__CADDYS01;s__CADDYS01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003984625.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Variovorax;s__Variovorax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003984625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004217005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004217005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900100965.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900100965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013298815.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__JAAFJR01;s__JAAFJR01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013298815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Polaromonas;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000382045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax paradoxus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001984055.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001984055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900115685.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900115685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009755665.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_013376045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013376045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003019815.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003019815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003952165.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guangxiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax guangxiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900114785.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900114785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_901827205.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp901827205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000463015.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004216615.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004216615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900101545.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900101545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900106655.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900106655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001899795.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001899795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000620225.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000620225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001577265.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001577265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003053685.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003053685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003952185.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003952185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_014170375.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014170375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900107745.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900107745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900115375.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900115375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001591345.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boronicumulans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax boronicumulans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003951285.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beijingensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax beijingensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_007677875.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Pseudorhodoferax;s__Pseudorhodoferax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boronicumulans_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_014303735.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014303735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001424835.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001424835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003217575.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Xylophilus;s__Xylophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampelinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__Xylophilus;s__Xylophilus ampelinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_014192585.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014192585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_901827175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp901827175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004210915.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004210915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000834655.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001591365.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003852515.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003852515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004340105.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004340105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001421705.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001421705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__Xylophilus;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_002157355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002157355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_002754375.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002754375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009498455.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000184745.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paradoxus_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001425205.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001425205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_010499245.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003014875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900090195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900090195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001426505.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001426505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001591385.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax soli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003752175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__BIGb0124;s__BIGb0124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003752175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Comamonas;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003984645.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003984645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_006438845.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginsengisoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax ginsengisoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_007828835.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beijingensis_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_014302995.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014302995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900099805.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900099805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_902506565.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902506565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003096925.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003096925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_013376015.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013376015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900112425.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp900112425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004298905.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__SCTK01;s__SCTK01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004298905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000282635.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000282635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009765735.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009765735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Xenophilus;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000378165.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Acetobacterales;f__Acetobacteraceae;g__Saccharibacter;s__Saccharibacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floricola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhodospirillales;f__Acetobacteraceae;g__Saccharibacter;s__Saccharibacter floricola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009834765.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009834765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhodospirillales;f__Acetobacteraceae;g__Saccharibacter;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009834805.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009834805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903970515.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Acidimicrobiia;o__Acidimicrobiales;f__RAAP-2;g__RAAP-2;s__RAAP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903970515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Candidatus Saccharibacteria;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903862655.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__CAIOZA01;s__CAIOZA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903862655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Ignavibacteriae;c__Ignavibacteria;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002839825.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__PGYU01;s__PGYU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002839825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Ignavibacteriae;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004322215.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__XYC2-FULL-35-21;s__XYC2-FULL-35-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004322215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidetes;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013204605.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__JABMNI01;s__JABMNI01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013204605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012518115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__JAAYTD01;s__JAAYTD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012518115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003151825.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Palsa-1295;f__Palsa-1295;g__PALSA-1295;s__PALSA-1295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003151825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013298775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA4661;g__PH2015;s__PH2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013298775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002344005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA961;g__UBA2353;s__UBA2353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002344005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011055195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__NICIL-2;g__NICIL-2;s__NICIL-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011055195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chlorobi;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002483085.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA7675;g__UBA7675;s__UBA7675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002483085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_014654705.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014654705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_014191195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA961;g__BJGZ01;s__BJGZ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014191195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903900335.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Palsa-1295;f__Palsa-1295;g__CAIUMP01;s__CAIUMP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903900335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002698995.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Ignavibacteria;o__Ignavibacteriales;f__Melioribacteraceae;g__GCA-2698995;s__GCA-2698995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002698995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011329105.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__SpSt-478;s__SpSt-478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011329105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903939735.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__UBA10438;s__UBA10438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903939735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001804705.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001804705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001899175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__Kapabacteria;s__Kapabacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiocyanatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Candidatus Kapabacteria;c__;o__;f__;g__;s__Candidatus Kapabacteria thiocyanatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013414795.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__Naka2016;s__Naka2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003731655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Candidatus Kapabacteria;c__;o__;f__;g__;s__Candidatus Kapabacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003610275.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Actinomycetia;o__Actinomycetales;f__Microbacteriaceae;g__Microbacterium;s__Microbacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginsengiterrae_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteria;c__Actinobacteria;o__Micrococcales;f__Microbacteriaceae;g__Microbacterium;s__Microbacterium ginsengiterrae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_014205075.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginsengiterrae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__Bin22;s__Bin22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002238505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002238505.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__UBA1429;f__UBA1429;g__UBA1429;s__UBA1429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002329325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__Anaerolineales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002329325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Thermoflexales;f__Fen-1058;g__Fen-1058;s__Fen-1058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003154115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003154115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__FW602-bin16;f__FW602-bin16;g__FW602-bin16;s__FW602-bin16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004297765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004297765.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__CF-121;f__CF-121;g__CF-121;s__CF-121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005880615.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__CF-134;s__CF-134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005880985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005880985.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__SHXW01;g__SHXW01;s__SHXW01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009693115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__Bin5;s__Bin5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009840225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Caldilineae;o__Caldilineales;f__Caldilineaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009840225.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__UBA3940;g__TC-195;s__TC-195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp010092885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_010092885.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__DSGV01;f__DSGV01;g__DSGV01;s__DSGV01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011057325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011057325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA1222;g__SURF-27;s__SURF-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903844845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903844845.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__Roseiflexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000016665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000016665.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__Caldilinea;s__Caldilinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerophila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Caldilineae;o__Caldilineales;f__Caldilineaceae;g__Caldilinea;s__Caldilinea aerophila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000281175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Nitrolancea;s__Nitrolancea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hollandica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__Nitrolancea;s__Nitrolancea hollandica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000297255.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Actinomycetia;o__Streptomycetales;f__Streptomycetaceae;g__Streptomyces_B;s__Streptomyces_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000701325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteria;c__Actinobacteria;o__Streptomycetales;f__Streptomycetaceae;g__Streptomyces;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000701325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalogenimonas;s__Dehalogenimonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formicexedens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas formicexedens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001953175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Oscillochloris;s__Oscillochloris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fontis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__Candidatus Oscillochloris fontis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004138135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroploca;s__Chloroploca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004762035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus Chloroploca;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004762035.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__UBA5629;g__UBA1162;s__UBA1162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002311135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002311135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__UBA1141;s__UBA1141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002311385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002311385.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__OLB14;s__OLB14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002345215.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Aureabacteria_A;c__PUNC01;o__PUNC01;f__PUNC01;g__PUNC01;s__PUNC01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003551625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003551625.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA6077;o__UBA6077;f__CF-72;g__CF-72;s__CF-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005883405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005883405.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011046595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011046595.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DUEN01;f__DUEN01;g__DUEN01;s__DUEN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013152435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013152435.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SZUA-161;f__SpSt-899;g__JABMQN01;s__JABMQN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013203045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013203045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014379595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_014379595.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggregans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus aggregans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000021945.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__JKG1;s__JKG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000526415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000526415.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geysericola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon geysericola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001306135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alkenigignens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas alkenigignens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001466665.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004138165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004138165.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Dictyobacter;s__Dictyobacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp008326305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Dictyobacteraceae;g__Dictyobacter;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_008326305.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__UBA11138;g__UBA2160;s__UBA2160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002328865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002328865.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__GCA-2702065;s__GCA-2702065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002702065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__Anaerolineales;f__Anaerolineaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002702065.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__Palsa-851;s__Palsa-851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Candidatus Dormibacteraeota;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003162415.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__Palsa-875;s__Palsa-875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003244045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Candidatus Dormibacteraeota;c__;o__;f__;g__Candidatus Dormibacter;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003244045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DSLN01;f__DSLN01;g__DSLN01;s__DSLN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011048175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011048175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__Anaerolineaceae;g__T78;s__T78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012729755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012729755.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903920315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903920315.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aurantiacus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus aurantiacus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000018865.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalococcoides;s__Dehalococcoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mccartyi_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalococcoides;s__Dehalococcoides mccartyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001889305.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__Bin87;s__Bin87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002238825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002238825.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp007132185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_007132185.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Latescibacterota;c__JAAXHH01;o__JAAXHH01;f__JAAXHH01;g__JAAXHH01;s__JAAXHH01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009835325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Gemmatimonadetes;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009835325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA5627;g__UBA5627;s__UBA5627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012520835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__Dehalococcoidales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012520835.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__UBA9611;s__UBA9611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012959605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012959605.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__L227-5C;s__L227-5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013390945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013390945.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__UBA965;s__UBA965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903889425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903889425.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__UBA5629;g__CAIMUM01;s__CAIMUM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903929005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903929005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Sphaerobacter;s__Sphaerobacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thermophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__Sphaerobacter;s__Sphaerobacter thermophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000024985.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004138175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_004138175.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__OLB13;s__OLB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001567485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001567485.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA8950;s__UBA8950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001872455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001872455.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__UBA11138;g__Bin90;s__Bin90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002238855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002238855.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__Bin127;s__Bin127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002239045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002239045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__GCA-002723415;g__GCA-002723415;s__GCA-002723415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002721445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002721445.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__UBA8260;s__UBA8260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003142035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003142035.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__Palsa-1032;s__Palsa-1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003169735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003169735.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__OHK40;s__OHK40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004367505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004367505.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__UBA11361;s__UBA11361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005881495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005881495.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__CF-121;f__CF-121;g__VBDY01;s__VBDY01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005882775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005882775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__OSU-TB39;g__OSU-TB39;s__OSU-TB39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009392195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009392195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2963;f__UBA2963;g__Bin16;s__Bin16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009838965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009838965.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__VXOI01;s__VXOI01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009840175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009840175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__CAINMN01;s__CAINMN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009925585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009925585.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012839565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012839565.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__J102;g__JAADII01;s__JAADII01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013151415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013151415.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CF-46;s__CF-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013698095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013698095.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA5195;s__UBA5195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903846015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903846015.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__Palsa-870;s__Palsa-870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004299235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004299235.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__40CM-4-65-16;s__40CM-4-65-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005883575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005883575.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011523365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011523365.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Promineofilales;f__Promineofilaceae;g__WTJY01;s__WTJY01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011524645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011524645.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__UBA1151;g__UBA1151;s__UBA1151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013204555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013204555.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__CADCWF01;s__CADCWF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902806345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Thermomicrobiales;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_902806345.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon aurantiacus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_000018565.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__CG2-30-64-16;f__CG2-30-64-16;g__CG2-30-64-16;s__CG2-30-64-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002842085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002842085.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA3254;g__UBA3254;s__UBA3254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011389395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011389395.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trichoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__Oscillochloris trichoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000152145.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Thermogemmatispora;s__Thermogemmatispora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onikobensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora onikobensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001748285.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__SDU3-3;s__SDU3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009268125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_009268125.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Thermoflexales;f__Thermoflexaceae;g__Thermoflexus;s__Thermoflexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hugenholtzii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermoflexia;o__Thermoflexales;f__Thermoflexaceae;g__Thermoflexus;s__Thermoflexus hugenholtzii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_900187885.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__CG2-30-64-16;f__CG2-30-64-16;g__MWBF01;s__MWBF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002068935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002068935.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__UBA6663;g__DSNW01;s__DSNW01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011047095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011047095.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__CAIJPN01;s__CAIJPN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903822545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903822545.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Viridilinea;s__Viridilinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903915775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903915775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermorudis;s__Thermorudis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peleae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__;f__;g__Thermorudis;s__Thermorudis peleae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000744775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llansteffanensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon llansteffanensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003205875.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__CADDYW01;g__CADDYW01;s__CADDYW01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902810745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_902810745.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002409625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002409625.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005889085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005889085.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__P2-11E;f__P2-11E;g__CF-39;s__CF-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005889405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005889405.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__VXLM01;g__VXLM01;s__VXLM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009841605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009841605.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Promineofilales;f__Promineofilaceae;g__CAADGU01;s__CAADGU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011525915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ardenticatenia;o__Ardenticatenales;f__Ardenticatenaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011525915.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__OHK22;s__OHK22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013538855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013538855.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__JACDGP01;s__JACDGP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013821605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013821605.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000516515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000516515.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islandicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus islandicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001650695.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asiatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus Chloroploca;s__Candidatus Chloroploca asiatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_002532075.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001005265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001005265.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA6952;f__QGNO01;g__QGNO01;s__QGNO01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003228195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003228195.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__SLMJ01;s__SLMJ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp007695115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_007695115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009840135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009840135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009840355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009840355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009885945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009885945.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__JACCXM01;s__JACCXM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013697005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013697005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__CADCWG01;s__CADCWG01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902806335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_902806335.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermomicrobium;s__Thermomicrobium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roseum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermomicrobium;s__Thermomicrobium roseum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000021685.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__Cyanobacteriia;o__Cyanobacteriales;f__Nostocaceae;g__Brasilonema;s__Brasilonema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolypothrichoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__;o__Nostocales;f__Scytonemataceae;g__Scytonema;s__Scytonema tolypothrichoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000828085.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mccartyi_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000830885.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Tengunoibacter;s__Tengunoibacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsumagoiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Dictyobacteraceae;g__Tengunoibacter;s__Tengunoibacter tsumagoiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003967535.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA6077;o__UBA6077;f__UBA6077;g__UBA6077;s__UBA6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002436065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002436065.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__GCA-002708145;s__GCA-002708145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002714425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002714425.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002746355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002746355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202-VII-2;f__SAR202-VII-2;g__SAR202-VII-2;s__SAR202-VII-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003228115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003228115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__Dormibacter;s__Dormibacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003244185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003244185.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__CFX5;s__CFX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003577005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003577005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__VBGR01;s__VBGR01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005880695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005880695.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005887685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005887685.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__UBA2991;s__UBA2991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009841435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009841435.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__DSXF01;s__DSXF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011367945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011367945.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__JAAYEA01;f__JAAYEA01;g__JAAYEA01;s__JAAYEA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012689325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012689325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__UBA1429;f__UBA1429;g__JAAYED01;s__JAAYED01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012719135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012719135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__L227-S17;s__L227-S17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013390565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013390565.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__AB-539-J10;g__RBG-13-51-36;s__RBG-13-51-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903884455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903884455.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__CAIWXH01;s__CAIWXH01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903916565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903916565.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermobaculales;f__Thermobaculaceae;g__Thermobaculum;s__Thermobaculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terrenum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__Thermobaculum;s__Thermobaculum terrenum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000025005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lykanthroporepellens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas lykanthroporepellens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000143165.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carboxidivorans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora carboxidivorans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000702505.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__Tepidiforma;s__Tepidiforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonchosmolovskayae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Tepidiformia;o__Tepidiformales;f__Tepidiformaceae;g__Tepidiforma;s__Tepidiforma bonchosmolovskayae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_008838325.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA5796;s__UBA5796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002418215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002418215.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__RBG-16-64-43;g__FEN-1073;s__FEN-1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003141675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003141675.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__WOR-3;c__UBA3072;o__UBA3072;f__UBA3072;g__E29-bin14;s__E29-bin14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004377355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__Candidatus Stahlbacteria;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004377355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005887995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005887995.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005889135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005889135.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA1222;g__WRNP01;s__WRNP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009776515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009776515.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011048055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011048055.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA2235;o__SpSt-225;f__SpSt-225;g__SpSt-225;s__SpSt-225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011053965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011053965.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__UBA1328;s__UBA1328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012959765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012959765.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__AL-N1;s__AL-N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013122435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013122435.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__JACAEQ01;s__JACAEQ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013388755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013388755.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CAIXZV01;s__CAIXZV01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903925955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903925955.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Ardenticatenales;f__Ardenticatenaceae;g__Ardenticatena;s__Ardenticatena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ardenticatenia;o__Ardenticatenales;f__Ardenticatenaceae;g__Ardenticatena;s__Ardenticatena maritima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_001306175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__54-19;s__54-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902812345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_902812345.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002898255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002898255.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005880795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005880795.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009837355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009837355.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__4572-78;f__J111;g__DSQQ01;s__DSQQ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011370265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011370265.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__DTJF01;s__DTJF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011370595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011370595.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__Cyanobacteriia;o__Gloeobacterales;f__Gloeobacteraceae;g__JACMLN01;s__JACMLN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014379585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_014379585.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castenholzii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__Roseiflexus castenholzii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000017805.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediisalina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus Viridilinea;s__Candidatus Viridilinea mediisalina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_002532535.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tikiterensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora tikiterensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003268475.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aurantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora aurantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_008974285.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Firmicutes_B;c__Desulfotomaculia;o__Desulfotomaculales;f__Pelotomaculaceae;g__DTU098;s__DTU098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001512635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__Clostridia;o__Clostridiales;f__Peptococcaceae;g__Pelotomaculum;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001512635.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__P2-11E;f__P2-11E;g__3-1-20CM-2-70-9;s__3-1-20CM-2-70-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005881885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005881885.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CF-16;s__CF-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005883615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005883615.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp005889075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_005889075.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA6952;f__UBA6952;g__UBA6952;s__UBA6952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009392515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009392515.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009838625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009838625.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SM23-28-2;f__HRbin24;g__HRBIN24;s__HRBIN24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011047455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011047455.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA12294;s__UBA12294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011331405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011331405.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__JAAUSY01;s__JAAUSY01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012032475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012032475.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013204545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013204545.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp014584575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_014584575.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903887465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903887465.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mccartyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000011905.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002563855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_002563855.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002238445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002238445.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__UBA1151;g__GCA-2730555;s__GCA-2730555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp002730555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_002730555.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003132525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003132525.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009841235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009841235.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DRVO01;f__DRVO01;g__Ch71;s__Ch71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013178015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013178015.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp000735195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_000735195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA12087;s__UBA12087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001796335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001796335.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp001898225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_001898225.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003130845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003130845.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003151935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003151935.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003169845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003169845.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Acidobacteriota;c__Thermoanaerobaculia;o__Gp7-AA8;f__Gp7-AA8;g__QHVT01;s__QHVT01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003223645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Acidobacteria;c__;o__;f__;g__;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_003223645.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__FW602-bin22;g__FW602-bin22;s__FW602-bin22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp004297775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_004297775.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__SLAK01;s__SLAK01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp007118095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_007118095.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__J038;s__J038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp007693385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_007693385.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp009838175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_009838175.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__DSKJ01;g__DSKJ01;s__DSKJ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011051445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011051445.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__DTNP01;s__DTNP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp011389075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Ktedonobacter;s__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_011389075.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__JAAUTZ01;s__JAAUTZ01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp012031225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_012031225.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__J027;g__CFX10;s__CFX10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp013112715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_013112715.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp903932805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB_GCA_903932805.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__UBA2029;g__MO-CFX2;s__MO-CFX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp003569045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_003569045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermobaculales;f__Thermobaculaceae;g__CADDYR01;s__CADDYR01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp902810765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS_GCF_902810765.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variovorax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnimatodetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharibacteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapabacteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroflexi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">these are not exactly the case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomy on paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node on paper network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTDB taxonomy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on microbetagDB</t>
   </si>
   <si>
     <r>
@@ -1036,7 +3622,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__Armatimonas;s__Armatimonas </t>
+      <t xml:space="preserve">Node </t>
     </r>
     <r>
       <rPr>
@@ -1045,20 +3631,37 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">rosea</t>
+      <t xml:space="preserve">55</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__Armatimonas;s__Armatimonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903859705.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__CAIXIX01;s__CAIXIX01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000374545.1</t>
+    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Variovorax;s__Variovorax sp001899795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M. </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ginsengsoli</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1069,7 +3672,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__Negativicutes;o__Selenomonadales;f__Sporomusaceae;g__Anaeromusa;s__Anaeromusa </t>
+      <t xml:space="preserve">Node </t>
     </r>
     <r>
       <rPr>
@@ -1078,32 +3681,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">acidaminophila</t>
+      <t xml:space="preserve">144</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">d__Bacteria;p__Firmicutes_C;c__Negativicutes;o__Anaeromusales;f__Anaeromusaceae;g__Anaeromusa;s__Anaeromusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011056185.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__CSP1-3;c__CSP1-3;o__CSP1-3;f__HRBIN32;g__SpSt-150;s__SpSt-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012518355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__UBA11051;g__JAAYSP01;s__JAAYSP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000427095.1</t>
+    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Actinomycetia;o__Actinomycetales;f__Microbacteriaceae;g__Microbacterium;s__Microbacterium ginsengisoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No as genome completeness ~65%, used tera instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d__Bacteria;p__Patescibacteria;c__Saccharimonadia;o__Saccharimonadales;f__Saccharimonadaceae;g__UBA6175;s__UBA6175 sp001897305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No as genome completeness ~65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapabacteria</t>
   </si>
   <si>
     <r>
@@ -1114,7 +3714,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__Chthonomonas;s__Chthonomonas </t>
+      <t xml:space="preserve">Node </t>
     </r>
     <r>
       <rPr>
@@ -1123,68 +3723,33 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">calidirosea</t>
+      <t xml:space="preserve">59</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__Chthonomonadaceae;g__Chthonomonas;s__Chthonomonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013203665.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Cloacimonadota;c__Cloacimonadia;o__Cloacimonadales;f__TCS61;g__JABMPU01;s__JABMPU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013178155.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__JABLXH01;g__JABLXH01;s__JABLXH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903910385.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Armatimonadaceae;g__CAIVZM01;s__CAIVZM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011053695.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__HRBIN16;o__HRBIN16;f__HRBIN16;g__HRBIN16;s__HRBIN16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012517255.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__Chthonomonadales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__CAJBBX01;g__JAAYVH01;s__JAAYVH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903928345.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__CAIYQO01;o__CAIYQO01;f__CAIYQO01;g__CAIYQO01;s__CAIYQO01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002335425.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Fimbriimonadia;o__Fimbriimonadales;f__Fimbriimonadaceae;g__UBA2017;s__UBA2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903885605.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Chthonomonadetes;o__Chthonomonadales;f__CAJBBX01;g__CAJBBX01;s__CAJBBX01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903919615.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003574315.1</t>
+    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__Kapabacteria;s__Kapabacteria thiocyanatum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Arminatodetes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sp.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1195,7 +3760,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Armatimonadia;o__Capsulimonadales;f__Capsulimonadaceae;g__Capsulimonas;s__Capsulimonas </t>
+      <t xml:space="preserve">Node </t>
     </r>
     <r>
       <rPr>
@@ -1204,3284 +3769,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">corticalis</t>
+      <t xml:space="preserve">137</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Armatimonadia;o__Armatimonadales;f__Capsulimonadaceae;g__Capsulimonas;s__Capsulimonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011055025.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Fimbriimonadia;o__Fimbriimonadales;f__GBS-DC;g__HRBIN15;s__HRBIN15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013314755.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadetes;c__Chthonomonadetes;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013314775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__UBA5377;o__UBA5377;f__JABUFB01;g__JABUFB01;s__JABUFB01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903868795.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Verrucomicrobia;c__Spartobacteria;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Verrucomicrobiota;c__Verrucomicrobiae;o__Chthoniobacterales;f__UBA6821;g__UBA6821;s__UBA6821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_902810715.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__UBA9087;o__UBA10029;f__UBA10029;g__CADDYS01;s__CADDYS01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003984625.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Variovorax;s__Variovorax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003984625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004217005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004217005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900100965.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900100965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013298815.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__JAAFJR01;s__JAAFJR01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013298815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Polaromonas;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000382045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">paradoxus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001984055.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001984055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900115685.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900115685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009755665.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_013376045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013376045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003019815.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003019815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003952165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guangxiensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">guangxiensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900114785.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900114785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_901827205.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp901827205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000463015.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004216615.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004216615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900101545.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900101545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900106655.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900106655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001899795.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001899795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000620225.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000620225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001577265.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001577265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003053685.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003053685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003952185.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003952185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_014170375.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014170375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900107745.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900107745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900115375.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900115375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001591345.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boronicumulans</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">boronicumulans</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003951285.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beijingensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">beijingensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_007677875.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Pseudorhodoferax;s__Pseudorhodoferax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boronicumulans_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_014303735.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014303735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001424835.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001424835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003217575.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Xylophilus;s__Xylophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ampelinus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__Xylophilus;s__Xylophilus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ampelinus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_014192585.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014192585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_901827175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp901827175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004210915.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004210915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000834655.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001591365.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003852515.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003852515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004340105.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004340105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001421705.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001421705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__Xylophilus;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_002157355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002157355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_002754375.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002754375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009498455.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000184745.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paradoxus_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001425205.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001425205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_010499245.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003014875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900090195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900090195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001426505.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001426505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001591385.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soli</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">soli</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003752175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__BIGb0124;s__BIGb0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003752175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Comamonas;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003984645.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003984645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_006438845.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ginsengisoli</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Variovorax;s__Variovorax </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ginsengisoli</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_007828835.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beijingensis_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_014302995.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014302995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900099805.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900099805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_902506565.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902506565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003096925.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003096925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_013376015.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013376015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900112425.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp900112425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004298905.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__SCTK01;s__SCTK01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004298905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000282635.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000282635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009765735.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009765735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Xenophilus;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000378165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Acetobacterales;f__Acetobacteraceae;g__Saccharibacter;s__Saccharibacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floricola</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhodospirillales;f__Acetobacteraceae;g__Saccharibacter;s__Saccharibacter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">floricola</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009834765.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009834765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhodospirillales;f__Acetobacteraceae;g__Saccharibacter;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009834805.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009834805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903970515.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Acidimicrobiia;o__Acidimicrobiales;f__RAAP-2;g__RAAP-2;s__RAAP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903970515</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Saccharibacteria;c__;o__;f__;g__;s__</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903862655.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__CAIOZA01;s__CAIOZA01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903862655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Ignavibacteriae;c__Ignavibacteria;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002839825.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__PGYU01;s__PGYU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002839825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Ignavibacteriae;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004322215.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__XYC2-FULL-35-21;s__XYC2-FULL-35-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004322215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidetes;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013204605.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__JABMNI01;s__JABMNI01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013204605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012518115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__JAAYTD01;s__JAAYTD01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012518115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003151825.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Palsa-1295;f__Palsa-1295;g__PALSA-1295;s__PALSA-1295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003151825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013298775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA4661;g__PH2015;s__PH2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013298775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002344005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA961;g__UBA2353;s__UBA2353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002344005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011055195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__NICIL-2;g__NICIL-2;s__NICIL-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011055195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chlorobi;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002483085.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA7675;g__UBA7675;s__UBA7675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002483085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_014654705.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014654705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_014191195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA961;g__BJGZ01;s__BJGZ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014191195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903900335.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Palsa-1295;f__Palsa-1295;g__CAIUMP01;s__CAIUMP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903900335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002698995.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Ignavibacteria;o__Ignavibacteriales;f__Melioribacteraceae;g__GCA-2698995;s__GCA-2698995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002698995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011329105.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__SpSt-478;s__SpSt-478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011329105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903939735.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__UBA10438;s__UBA10438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903939735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001804705.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001804705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001899175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__Kapabacteriaceae;g__Kapabacteria;s__Kapabacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiocyanatum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Kapabacteria;c__;o__;f__;g__;s__Candidatus Kapabacteria thiocyanatum</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013414795.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Bacteroidota;c__Kapabacteria;o__Kapabacteriales;f__UBA2268;g__Naka2016;s__Naka2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003731655</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Kapabacteria;c__;o__;f__;g__;s__Candidatus Kapabacteria</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003610275.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Actinomycetia;o__Actinomycetales;f__Microbacteriaceae;g__Microbacterium;s__Microbacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ginsengiterrae_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteria;c__Actinobacteria;o__Micrococcales;f__Microbacteriaceae;g__Microbacterium;s__Microbacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ginsengiterrae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_014205075.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__Bin22;s__Bin22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002238505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002238505.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__UBA1429;f__UBA1429;g__UBA1429;s__UBA1429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002329325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__Anaerolineales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002329325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Thermoflexales;f__Fen-1058;g__Fen-1058;s__Fen-1058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003154115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003154115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__FW602-bin16;f__FW602-bin16;g__FW602-bin16;s__FW602-bin16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004297765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004297765.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__CF-121;f__CF-121;g__CF-121;s__CF-121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005880615.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__CF-134;s__CF-134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005880985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005880985.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__SHXW01;g__SHXW01;s__SHXW01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009693115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__Bin5;s__Bin5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009840225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Caldilineae;o__Caldilineales;f__Caldilineaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009840225.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__UBA3940;g__TC-195;s__TC-195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp010092885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_010092885.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__DSGV01;f__DSGV01;g__DSGV01;s__DSGV01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011057325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011057325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA1222;g__SURF-27;s__SURF-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903844845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903844845.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__Roseiflexus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000016665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000016665.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__Caldilinea;s__Caldilinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerophila</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Caldilineae;o__Caldilineales;f__Caldilineaceae;g__Caldilinea;s__Caldilinea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aerophila</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000281175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Nitrolancea;s__Nitrolancea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hollandica</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__Nitrolancea;s__Nitrolancea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hollandica</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000297255.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteriota;c__Actinomycetia;o__Streptomycetales;f__Streptomycetaceae;g__Streptomyces_B;s__Streptomyces_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000701325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Actinobacteria;c__Actinobacteria;o__Streptomycetales;f__Streptomycetaceae;g__Streptomyces;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000701325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalogenimonas;s__Dehalogenimonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formicexedens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">formicexedens</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001953175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Oscillochloris;s__Oscillochloris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fontis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Oscillochloris fontis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004138135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroploca;s__Chloroploca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004762035</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Chloroploca;s__</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004762035.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__UBA5629;g__UBA1162;s__UBA1162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002311135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002311135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__UBA1141;s__UBA1141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002311385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002311385.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__OLB14;s__OLB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002345215.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Aureabacteria_A;c__PUNC01;o__PUNC01;f__PUNC01;g__PUNC01;s__PUNC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003551625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003551625.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA6077;o__UBA6077;f__CF-72;g__CF-72;s__CF-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005883405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005883405.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011046595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011046595.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DUEN01;f__DUEN01;g__DUEN01;s__DUEN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013152435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013152435.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SZUA-161;f__SpSt-899;g__JABMQN01;s__JABMQN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013203045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013203045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014379595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_014379595.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggregans</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aggregans</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000021945.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__JKG1;s__JKG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000526415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000526415.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geysericola</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">geysericola</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001306135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alkenigignens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">alkenigignens</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001466665.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004138165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004138165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Dictyobacter;s__Dictyobacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp008326305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Dictyobacteraceae;g__Dictyobacter;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_008326305.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__UBA11138;g__UBA2160;s__UBA2160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002328865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002328865.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__GCA-2702065;s__GCA-2702065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002702065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Anaerolineae;o__Anaerolineales;f__Anaerolineaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002702065.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__Palsa-851;s__Palsa-851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003162415</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dormibacteraeota;c__;o__;f__;g__;s__</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003162415.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__Palsa-875;s__Palsa-875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003244045</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dormibacteraeota;c__;o__;f__;g__Candidatus Dormibacter;s__</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003244045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DSLN01;f__DSLN01;g__DSLN01;s__DSLN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011048175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011048175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__Anaerolineaceae;g__T78;s__T78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012729755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012729755.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903920315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903920315.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aurantiacus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aurantiacus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000018865.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalococcoides;s__Dehalococcoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mccartyi_A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalococcoides;s__Dehalococcoides </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mccartyi</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001889305.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__Bin87;s__Bin87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002238825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002238825.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp007132185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_007132185.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Latescibacterota;c__JAAXHH01;o__JAAXHH01;f__JAAXHH01;g__JAAXHH01;s__JAAXHH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009835325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Gemmatimonadetes;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009835325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA5627;g__UBA5627;s__UBA5627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012520835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__Dehalococcoidales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012520835.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__UBA9611;s__UBA9611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012959605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012959605.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__L227-5C;s__L227-5C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013390945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013390945.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__UBA965;s__UBA965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903889425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903889425.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__UBA5629;g__CAIMUM01;s__CAIMUM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903929005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903929005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Sphaerobacter;s__Sphaerobacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thermophilus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__Sphaerobacter;s__Sphaerobacter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thermophilus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000024985.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004138175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_004138175.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__OLB13;s__OLB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001567485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001567485.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA8950;s__UBA8950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001872455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001872455.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__UBA11138;g__Bin90;s__Bin90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002238855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002238855.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__Bin127;s__Bin127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002239045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002239045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__GCA-002723415;g__GCA-002723415;s__GCA-002723415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002721445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002721445.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__UBA8260;f__UBA8260;g__UBA8260;s__UBA8260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003142035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003142035.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__Palsa-1032;s__Palsa-1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003169735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003169735.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__OHK40;s__OHK40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004367505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004367505.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__UBA11361;s__UBA11361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005881495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005881495.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__CF-121;f__CF-121;g__VBDY01;s__VBDY01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005882775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005882775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__OSU-TB39;g__OSU-TB39;s__OSU-TB39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009392195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009392195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2963;f__UBA2963;g__Bin16;s__Bin16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009838965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009838965.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA3495;f__UBA3495;g__VXOI01;s__VXOI01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009840175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009840175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__CAINMN01;s__CAINMN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009925585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Proteobacteria;c__Betaproteobacteria;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009925585.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012839565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012839565.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__J102;g__JAADII01;s__JAADII01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013151415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013151415.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CF-46;s__CF-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013698095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013698095.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA5195;s__UBA5195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903846015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903846015.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__Palsa-870;s__Palsa-870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004299235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004299235.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__40CM-4-65-16;s__40CM-4-65-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005883575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005883575.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011523365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011523365.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Promineofilales;f__Promineofilaceae;g__WTJY01;s__WTJY01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011524645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011524645.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__UBA1151;g__UBA1151;s__UBA1151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013204555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013204555.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__CADCWF01;s__CADCWF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902806345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Thermomicrobiales;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_902806345.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aurantiacus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_000018565.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__CG2-30-64-16;f__CG2-30-64-16;g__CG2-30-64-16;s__CG2-30-64-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002842085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002842085.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA3254;g__UBA3254;s__UBA3254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011389395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011389395.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trichoides</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Oscillochloris;s__Oscillochloris </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trichoides</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000152145.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Thermogemmatispora;s__Thermogemmatispora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onikobensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">onikobensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001748285.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__SDU3-3;s__SDU3-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009268125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_009268125.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Thermoflexales;f__Thermoflexaceae;g__Thermoflexus;s__Thermoflexus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugenholtzii</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermoflexia;o__Thermoflexales;f__Thermoflexaceae;g__Thermoflexus;s__Thermoflexus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hugenholtzii</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_900187885.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__CG2-30-64-16;f__CG2-30-64-16;g__MWBF01;s__MWBF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002068935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002068935.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__UBA6663;g__DSNW01;s__DSNW01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011047095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011047095.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__CAIJPN01;s__CAIJPN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903822545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903822545.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Viridilinea;s__Viridilinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903915775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903915775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermorudis;s__Thermorudis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peleae</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__;f__;g__Thermorudis;s__Thermorudis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">peleae</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000744775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llansteffanensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__Herpetosiphon;s__Herpetosiphon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">llansteffanensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003205875.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__CADDYW01;g__CADDYW01;s__CADDYW01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902810745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_902810745.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002409625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002409625.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005889085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005889085.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__P2-11E;f__P2-11E;g__CF-39;s__CF-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005889405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005889405.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202;f__VXLM01;g__VXLM01;s__VXLM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009841605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009841605.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Promineofilales;f__Promineofilaceae;g__CAADGU01;s__CAADGU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011525915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ardenticatenia;o__Ardenticatenales;f__Ardenticatenaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011525915.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__OHK22;s__OHK22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013538855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Herpetosiphonales;f__Herpetosiphonaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013538855.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Herpetosiphonaceae;g__JACDGP01;s__JACDGP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013821605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013821605.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000516515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000516515.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islandicus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__Chloroflexus;s__Chloroflexus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">islandicus</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001650695.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asiatica</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Chloroploca;s__Candidatus Chloroploca asiatica</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_002532075.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001005265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001005265.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA6952;f__QGNO01;g__QGNO01;s__QGNO01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003228195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003228195.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__SLMJ01;s__SLMJ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp007695115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Sphaerobacterales;f__Sphaerobacteraceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_007695115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009840135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009840135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009840355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009840355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009885945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009885945.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__JACCXM01;s__JACCXM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013697005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013697005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__UBA6265;g__CADCWG01;s__CADCWG01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902806335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_902806335.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermomicrobium;s__Thermomicrobium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roseum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Thermomicrobia;o__Thermomicrobiales;f__Thermomicrobiaceae;g__Thermomicrobium;s__Thermomicrobium </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">roseum</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000021685.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__Cyanobacteriia;o__Cyanobacteriales;f__Nostocaceae;g__Brasilonema;s__Brasilonema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolypothrichoides</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__;o__Nostocales;f__Scytonemataceae;g__Scytonema;s__Scytonema </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tolypothrichoides</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000828085.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mccartyi_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__Dehalococcoidales;f__Dehalococcoidaceae;g__Dehalococcoides;s__Dehalococcoides mccartyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000830885.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Tengunoibacter;s__Tengunoibacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsumagoiensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Dictyobacteraceae;g__Tengunoibacter;s__Tengunoibacter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tsumagoiensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003967535.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA6077;o__UBA6077;f__UBA6077;g__UBA6077;s__UBA6077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002436065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002436065.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__GCA-002708145;s__GCA-002708145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002714425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002714425.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002746355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002746355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SAR202-VII-2;f__SAR202-VII-2;g__SAR202-VII-2;s__SAR202-VII-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003228115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003228115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__Dormibacter;s__Dormibacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003244185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003244185.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Caldilineales;f__Caldilineaceae;g__CFX5;s__CFX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003577005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003577005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Dormibacterota;c__Dormibacteria;o__Dormibacterales;f__Dormibacteraceae;g__VBGR01;s__VBGR01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005880695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005880695.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005887685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005887685.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__UBA2991;s__UBA2991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009841435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009841435.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__DSXF01;s__DSXF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011367945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011367945.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__JAAYEA01;f__JAAYEA01;g__JAAYEA01;s__JAAYEA01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012689325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012689325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__UBA1429;f__UBA1429;g__JAAYED01;s__JAAYED01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012719135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012719135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__L227-S17;s__L227-S17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013390565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013390565.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__GIF9;f__AB-539-J10;g__RBG-13-51-36;s__RBG-13-51-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903884455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903884455.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__CAIWXH01;s__CAIWXH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903916565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903916565.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermobaculales;f__Thermobaculaceae;g__Thermobaculum;s__Thermobaculum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terrenum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__Thermobaculum;s__Thermobaculum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">terrenum</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000025005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lykanthroporepellens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Dehalococcoidia;o__;f__;g__Dehalogenimonas;s__Dehalogenimonas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lykanthroporepellens</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000143165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carboxidivorans</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">carboxidivorans</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000702505.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__Tepidiforma;s__Tepidiforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonchosmolovskayae</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Tepidiformia;o__Tepidiformales;f__Tepidiformaceae;g__Tepidiforma;s__Tepidiforma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bonchosmolovskayae</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_008838325.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA5796;s__UBA5796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002418215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002418215.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__RBG-16-64-43;g__FEN-1073;s__FEN-1073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003141675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003141675.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__WOR-3;c__UBA3072;o__UBA3072;f__UBA3072;g__E29-bin14;s__E29-bin14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004377355</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__;c__;o__;f__;g__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Stahlbacteria;s__</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004377355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005887995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005887995.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005889135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005889135.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__Dehalococcoidales;f__UBA1222;g__WRNP01;s__WRNP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009776515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009776515.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011048055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011048055.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__UBA2235;o__SpSt-225;f__SpSt-225;g__SpSt-225;s__SpSt-225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011053965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011053965.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__Bin127;g__UBA1328;s__UBA1328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012959765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012959765.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__AL-N1;s__AL-N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013122435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013122435.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__JACAEQ01;s__JACAEQ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013388755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013388755.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CAIXZV01;s__CAIXZV01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903925955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903925955.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Ardenticatenales;f__Ardenticatenaceae;g__Ardenticatena;s__Ardenticatena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maritima</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ardenticatenia;o__Ardenticatenales;f__Ardenticatenaceae;g__Ardenticatena;s__Ardenticatena </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">maritima</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_001306175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__54-19;f__54-19;g__54-19;s__54-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902812345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_902812345.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002898255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002898255.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005880795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005880795.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009837355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009837355.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__4572-78;f__J111;g__DSQQ01;s__DSQQ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011370265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011370265.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__DTJF01;s__DTJF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011370595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011370595.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Cyanobacteria;c__Cyanobacteriia;o__Gloeobacterales;f__Gloeobacteraceae;g__JACMLN01;s__JACMLN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014379585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_014379585.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castenholzii</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Roseiflexaceae;g__Roseiflexus;s__Roseiflexus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">castenholzii</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000017805.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediisalina</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Oscillochloridaceae;g__Candidatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Viridilinea;s__Candidatus Viridilinea mediisalina</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_002532535.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tikiterensis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tikiterensis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003268475.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aurantia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Thermogemmatisporales;f__Thermogemmatisporaceae;g__Thermogemmatispora;s__Thermogemmatispora </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aurantia</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_008974285.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Firmicutes_B;c__Desulfotomaculia;o__Desulfotomaculales;f__Pelotomaculaceae;g__DTU098;s__DTU098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001512635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Firmicutes;c__Clostridia;o__Clostridiales;f__Peptococcaceae;g__Pelotomaculum;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001512635.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__P2-11E;f__P2-11E;g__3-1-20CM-2-70-9;s__3-1-20CM-2-70-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005881885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005881885.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ellin6529;o__CSP1-4;f__CSP1-4;g__CF-16;s__CF-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005883615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005883615.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp005889075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_005889075.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA6952;f__UBA6952;g__UBA6952;s__UBA6952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009392515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009392515.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009838625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009838625.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__SM23-28-2;f__HRbin24;g__HRBIN24;s__HRBIN24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011047455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011047455.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA12294;s__UBA12294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011331405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011331405.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__JAAUSY01;s__JAAUSY01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012032475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012032475.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013204545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013204545.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp014584575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_014584575.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903887465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903887465.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mccartyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000011905.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002563855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_002563855.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002238445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002238445.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA1151;f__UBA1151;g__GCA-2730555;s__GCA-2730555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp002730555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_002730555.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003132525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003132525.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009841235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009841235.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__DRVO01;f__DRVO01;g__Ch71;s__Ch71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013178015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013178015.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp000735195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_000735195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__Anaerolineales;f__EnvOPS12;g__UBA12087;s__UBA12087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001796335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001796335.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp001898225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_001898225.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003130845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003130845.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003151935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003151935.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003169845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003169845.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Acidobacteriota;c__Thermoanaerobaculia;o__Gp7-AA8;f__Gp7-AA8;g__QHVT01;s__QHVT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003223645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Acidobacteria;c__;o__;f__;g__;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_003223645.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__FW602-bin22;g__FW602-bin22;s__FW602-bin22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp004297775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_004297775.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Dehalococcoidia;o__UBA2991;f__UBA2991;g__SLAK01;s__SLAK01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp007118095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_007118095.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__A4b;g__J038;s__J038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp007693385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_007693385.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp009838175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_009838175.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__FW602-bin22;o__FW602-bin22;f__DSKJ01;g__DSKJ01;s__DSKJ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011051445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011051445.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__DTNP01;s__DTNP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp011389075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexi;c__Ktedonobacteria;o__Ktedonobacterales;f__Ktedonobacteraceae;g__Ktedonobacter;s__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_011389075.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Chloroflexales;f__Chloroflexaceae;g__JAAUTZ01;s__JAAUTZ01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp012031225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_012031225.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__J027;g__CFX10;s__CFX10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp013112715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_013112715.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp903932805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB_GCA_903932805.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Anaerolineae;o__SBR1031;f__UBA2029;g__MO-CFX2;s__MO-CFX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp003569045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_003569045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d__Bacteria;p__Chloroflexota;c__Chloroflexia;o__Thermobaculales;f__Thermobaculaceae;g__CADDYR01;s__CADDYR01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp902810765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_GCF_902810765.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variovorax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnimatodetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saccharibacteria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapabacteria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloroflexi </t>
+    <t xml:space="preserve">d__Bacteria;p__Armatimonadota;c__Fimbriimonadia;o__Fimbriimonadales;f__Fimbriimonadaceae;g__55-13;s__55-13 sp001898035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node 41</t>
   </si>
 </sst>
 </file>
@@ -4494,7 +3789,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4576,13 +3871,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4806,7 +4109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5127,10 +4430,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5143,6 +4442,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5153,7 +4460,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5181,21 +4488,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5274,7 +4566,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
   </cols>
@@ -5502,7 +4794,7 @@
       <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89"/>
@@ -12714,7 +12006,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="2" style="0" width="4"/>
@@ -13090,7 +12382,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.67"/>
@@ -13384,7 +12676,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -14235,17 +13527,17 @@
   </sheetPr>
   <dimension ref="C1:HT365"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D173" activeCellId="0" sqref="D173"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G221" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G167" activeCellId="0" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="122.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="86.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="129.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="55.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="117.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.99"/>
   </cols>
   <sheetData>
@@ -16284,13 +15576,10 @@
       <c r="H166" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="I166" s="0" t="s">
-        <v>601</v>
-      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>546115</v>
@@ -16299,13 +15588,10 @@
         <v>598</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="I167" s="0" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18206,10 +17492,10 @@
         <v>956</v>
       </c>
       <c r="G284" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="H284" s="0" t="s">
         <v>957</v>
-      </c>
-      <c r="H284" s="0" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18217,16 +17503,16 @@
         <v>2014871</v>
       </c>
       <c r="E285" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="F285" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="F285" s="0" t="s">
+      <c r="G285" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="G285" s="0" t="s">
+      <c r="H285" s="0" t="s">
         <v>961</v>
-      </c>
-      <c r="H285" s="0" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18234,16 +17520,16 @@
         <v>1947838</v>
       </c>
       <c r="E286" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="F286" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="F286" s="0" t="s">
-        <v>964</v>
       </c>
       <c r="G286" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H286" s="0" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18251,16 +17537,16 @@
         <v>2026724</v>
       </c>
       <c r="E287" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="F287" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>967</v>
       </c>
       <c r="G287" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H287" s="0" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18271,13 +17557,13 @@
         <v>758</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>626</v>
       </c>
       <c r="H288" s="0" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18285,16 +17571,16 @@
         <v>2026724</v>
       </c>
       <c r="E289" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F289" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="F289" s="0" t="s">
-        <v>972</v>
       </c>
       <c r="G289" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18302,16 +17588,16 @@
         <v>2052315</v>
       </c>
       <c r="E290" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="F290" s="0" t="s">
         <v>974</v>
-      </c>
-      <c r="F290" s="0" t="s">
-        <v>975</v>
       </c>
       <c r="G290" s="0" t="s">
         <v>723</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18319,16 +17605,16 @@
         <v>2026724</v>
       </c>
       <c r="E291" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="F291" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="F291" s="0" t="s">
-        <v>978</v>
       </c>
       <c r="G291" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H291" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18336,16 +17622,16 @@
         <v>2026724</v>
       </c>
       <c r="E292" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="F292" s="0" t="s">
         <v>980</v>
-      </c>
-      <c r="F292" s="0" t="s">
-        <v>981</v>
       </c>
       <c r="G292" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18356,13 +17642,13 @@
         <v>835</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H293" s="0" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18370,16 +17656,16 @@
         <v>2026734</v>
       </c>
       <c r="E294" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="F294" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="F294" s="0" t="s">
-        <v>986</v>
       </c>
       <c r="G294" s="0" t="s">
         <v>626</v>
       </c>
       <c r="H294" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18387,16 +17673,16 @@
         <v>2052143</v>
       </c>
       <c r="E295" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="F295" s="0" t="s">
         <v>988</v>
-      </c>
-      <c r="F295" s="0" t="s">
-        <v>989</v>
       </c>
       <c r="G295" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H295" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18404,16 +17690,16 @@
         <v>2026724</v>
       </c>
       <c r="E296" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="F296" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="F296" s="0" t="s">
-        <v>992</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18421,16 +17707,16 @@
         <v>2026724</v>
       </c>
       <c r="E297" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="F297" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="F297" s="0" t="s">
-        <v>995</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18438,16 +17724,16 @@
         <v>2026724</v>
       </c>
       <c r="E298" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="F298" s="0" t="s">
         <v>997</v>
-      </c>
-      <c r="F298" s="0" t="s">
-        <v>998</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18455,16 +17741,16 @@
         <v>166587</v>
       </c>
       <c r="E299" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="F299" s="0" t="s">
         <v>1000</v>
-      </c>
-      <c r="F299" s="0" t="s">
-        <v>1001</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18472,16 +17758,16 @@
         <v>543045</v>
       </c>
       <c r="E300" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F300" s="0" t="s">
         <v>1003</v>
-      </c>
-      <c r="F300" s="0" t="s">
-        <v>1004</v>
       </c>
       <c r="G300" s="0" t="s">
         <v>736</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18489,16 +17775,16 @@
         <v>525904</v>
       </c>
       <c r="E301" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F301" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="F301" s="0" t="s">
+      <c r="G301" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="G301" s="0" t="s">
+      <c r="H301" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="H301" s="0" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18509,13 +17795,13 @@
         <v>657</v>
       </c>
       <c r="F302" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G302" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="G302" s="0" t="s">
+      <c r="H302" s="0" t="s">
         <v>1011</v>
-      </c>
-      <c r="H302" s="0" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18526,13 +17812,13 @@
         <v>861</v>
       </c>
       <c r="F303" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G303" s="0" t="s">
         <v>1013</v>
       </c>
-      <c r="G303" s="0" t="s">
+      <c r="H303" s="0" t="s">
         <v>1014</v>
-      </c>
-      <c r="H303" s="0" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18540,16 +17826,16 @@
         <v>2601677</v>
       </c>
       <c r="E304" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F304" s="0" t="s">
         <v>1016</v>
       </c>
-      <c r="F304" s="0" t="s">
+      <c r="G304" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="G304" s="0" t="s">
+      <c r="H304" s="0" t="s">
         <v>1018</v>
-      </c>
-      <c r="H304" s="0" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18557,16 +17843,16 @@
         <v>1950216</v>
       </c>
       <c r="E305" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F305" s="0" t="s">
         <v>1020</v>
-      </c>
-      <c r="F305" s="0" t="s">
-        <v>1021</v>
       </c>
       <c r="G305" s="0" t="s">
         <v>609</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18574,16 +17860,16 @@
         <v>2052143</v>
       </c>
       <c r="E306" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F306" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="F306" s="0" t="s">
-        <v>1024</v>
       </c>
       <c r="G306" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18591,16 +17877,16 @@
         <v>2528828</v>
       </c>
       <c r="E307" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F307" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="F307" s="0" t="s">
+      <c r="G307" s="0" t="s">
         <v>1027</v>
       </c>
-      <c r="G307" s="0" t="s">
+      <c r="H307" s="0" t="s">
         <v>1028</v>
-      </c>
-      <c r="H307" s="0" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18611,13 +17897,13 @@
         <v>899</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18628,13 +17914,13 @@
         <v>835</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H309" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18642,16 +17928,16 @@
         <v>2026734</v>
       </c>
       <c r="E310" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F310" s="0" t="s">
         <v>1034</v>
-      </c>
-      <c r="F310" s="0" t="s">
-        <v>1035</v>
       </c>
       <c r="G310" s="0" t="s">
         <v>626</v>
       </c>
       <c r="H310" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18662,13 +17948,13 @@
         <v>869</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G311" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18676,16 +17962,16 @@
         <v>2026724</v>
       </c>
       <c r="E312" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F312" s="0" t="s">
         <v>1039</v>
-      </c>
-      <c r="F312" s="0" t="s">
-        <v>1040</v>
       </c>
       <c r="G312" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18693,16 +17979,16 @@
         <v>2026734</v>
       </c>
       <c r="E313" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F313" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="F313" s="0" t="s">
-        <v>1043</v>
       </c>
       <c r="G313" s="0" t="s">
         <v>626</v>
       </c>
       <c r="H313" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18710,16 +17996,16 @@
         <v>2686367</v>
       </c>
       <c r="E314" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F314" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="F314" s="0" t="s">
-        <v>1046</v>
       </c>
       <c r="G314" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H314" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18727,16 +18013,16 @@
         <v>2026724</v>
       </c>
       <c r="E315" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F315" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="F315" s="0" t="s">
-        <v>1049</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18744,16 +18030,16 @@
         <v>166587</v>
       </c>
       <c r="E316" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F316" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="F316" s="0" t="s">
-        <v>1052</v>
       </c>
       <c r="G316" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H316" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18761,16 +18047,16 @@
         <v>872965</v>
       </c>
       <c r="E317" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F317" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="F317" s="0" t="s">
+      <c r="G317" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="G317" s="0" t="s">
+      <c r="H317" s="0" t="s">
         <v>1056</v>
-      </c>
-      <c r="H317" s="0" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18778,16 +18064,16 @@
         <v>2026724</v>
       </c>
       <c r="E318" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F318" s="0" t="s">
         <v>1058</v>
-      </c>
-      <c r="F318" s="0" t="s">
-        <v>1059</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H318" s="0" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18798,13 +18084,13 @@
         <v>948</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G319" s="0" t="s">
         <v>344</v>
       </c>
       <c r="H319" s="0" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18815,13 +18101,13 @@
         <v>835</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18832,13 +18118,13 @@
         <v>745</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18846,16 +18132,16 @@
         <v>2052143</v>
       </c>
       <c r="E322" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F322" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="F322" s="0" t="s">
-        <v>1068</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H322" s="0" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18863,16 +18149,16 @@
         <v>2052143</v>
       </c>
       <c r="E323" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F323" s="0" t="s">
         <v>1070</v>
-      </c>
-      <c r="F323" s="0" t="s">
-        <v>1071</v>
       </c>
       <c r="G323" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18880,16 +18166,16 @@
         <v>2052143</v>
       </c>
       <c r="E324" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F324" s="0" t="s">
         <v>1073</v>
-      </c>
-      <c r="F324" s="0" t="s">
-        <v>1074</v>
       </c>
       <c r="G324" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18900,13 +18186,13 @@
         <v>641</v>
       </c>
       <c r="F325" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G325" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="G325" s="0" t="s">
+      <c r="H325" s="0" t="s">
         <v>1077</v>
-      </c>
-      <c r="H325" s="0" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18917,13 +18203,13 @@
         <v>882</v>
       </c>
       <c r="F326" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G326" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="G326" s="0" t="s">
+      <c r="H326" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="H326" s="0" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18934,13 +18220,13 @@
         <v>861</v>
       </c>
       <c r="F327" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G327" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="G327" s="0" t="s">
+      <c r="H327" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="H327" s="0" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18951,13 +18237,13 @@
         <v>861</v>
       </c>
       <c r="F328" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G328" s="0" t="s">
         <v>1085</v>
       </c>
-      <c r="G328" s="0" t="s">
+      <c r="H328" s="0" t="s">
         <v>1086</v>
-      </c>
-      <c r="H328" s="0" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18965,16 +18251,16 @@
         <v>1671628</v>
       </c>
       <c r="E329" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F329" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="F329" s="0" t="s">
+      <c r="G329" s="0" t="s">
         <v>1089</v>
       </c>
-      <c r="G329" s="0" t="s">
+      <c r="H329" s="0" t="s">
         <v>1090</v>
-      </c>
-      <c r="H329" s="0" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18982,16 +18268,16 @@
         <v>2026724</v>
       </c>
       <c r="E330" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F330" s="0" t="s">
         <v>1092</v>
-      </c>
-      <c r="F330" s="0" t="s">
-        <v>1093</v>
       </c>
       <c r="G330" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H330" s="0" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18999,16 +18285,16 @@
         <v>2026724</v>
       </c>
       <c r="E331" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F331" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="F331" s="0" t="s">
-        <v>1096</v>
       </c>
       <c r="G331" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H331" s="0" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19016,16 +18302,16 @@
         <v>2026724</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G332" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H332" s="0" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19033,16 +18319,16 @@
         <v>2030829</v>
       </c>
       <c r="E333" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F333" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="F333" s="0" t="s">
-        <v>1101</v>
       </c>
       <c r="G333" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H333" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19053,13 +18339,13 @@
         <v>628</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>630</v>
       </c>
       <c r="H334" s="0" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19067,16 +18353,16 @@
         <v>2026724</v>
       </c>
       <c r="E335" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F335" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="F335" s="0" t="s">
-        <v>1106</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H335" s="0" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19084,16 +18370,16 @@
         <v>2052143</v>
       </c>
       <c r="E336" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F336" s="0" t="s">
         <v>1108</v>
-      </c>
-      <c r="F336" s="0" t="s">
-        <v>1109</v>
       </c>
       <c r="G336" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H336" s="0" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19101,16 +18387,16 @@
         <v>2562117</v>
       </c>
       <c r="E337" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F337" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="G337" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="G337" s="0" t="s">
+      <c r="H337" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="H337" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19118,16 +18404,16 @@
         <v>2026724</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G338" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H338" s="0" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19138,13 +18424,13 @@
         <v>905</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H339" s="0" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19155,13 +18441,13 @@
         <v>661</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>736</v>
       </c>
       <c r="H340" s="0" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19172,13 +18458,13 @@
         <v>741</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>743</v>
       </c>
       <c r="H341" s="0" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19186,16 +18472,16 @@
         <v>2761530</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G342" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H342" s="0" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19206,13 +18492,13 @@
         <v>628</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>630</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19220,16 +18506,16 @@
         <v>2026724</v>
       </c>
       <c r="E344" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F344" s="0" t="s">
         <v>1127</v>
-      </c>
-      <c r="F344" s="0" t="s">
-        <v>1128</v>
       </c>
       <c r="G344" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19240,13 +18526,13 @@
         <v>721</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>723</v>
       </c>
       <c r="H345" s="0" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19257,13 +18543,13 @@
         <v>628</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G346" s="0" t="s">
         <v>630</v>
       </c>
       <c r="H346" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19271,16 +18557,16 @@
         <v>2052143</v>
       </c>
       <c r="E347" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F347" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="F347" s="0" t="s">
-        <v>1135</v>
       </c>
       <c r="G347" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19291,13 +18577,13 @@
         <v>694</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>917</v>
       </c>
       <c r="H348" s="0" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19305,16 +18591,16 @@
         <v>1797612</v>
       </c>
       <c r="E349" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F349" s="0" t="s">
         <v>1139</v>
-      </c>
-      <c r="F349" s="0" t="s">
-        <v>1140</v>
       </c>
       <c r="G349" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19322,16 +18608,16 @@
         <v>1895928</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G350" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19342,13 +18628,13 @@
         <v>829</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G351" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19359,13 +18645,13 @@
         <v>832</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G352" s="0" t="s">
         <v>723</v>
       </c>
       <c r="H352" s="0" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19376,13 +18662,13 @@
         <v>832</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>723</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19390,16 +18676,16 @@
         <v>1978231</v>
       </c>
       <c r="E354" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F354" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="F354" s="0" t="s">
+      <c r="G354" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="G354" s="0" t="s">
+      <c r="H354" s="0" t="s">
         <v>1152</v>
-      </c>
-      <c r="H354" s="0" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19407,16 +18693,16 @@
         <v>2026724</v>
       </c>
       <c r="E355" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F355" s="0" t="s">
         <v>1154</v>
-      </c>
-      <c r="F355" s="0" t="s">
-        <v>1155</v>
       </c>
       <c r="G355" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19424,16 +18710,16 @@
         <v>2026734</v>
       </c>
       <c r="E356" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F356" s="0" t="s">
         <v>1157</v>
-      </c>
-      <c r="F356" s="0" t="s">
-        <v>1158</v>
       </c>
       <c r="G356" s="0" t="s">
         <v>626</v>
       </c>
       <c r="H356" s="0" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,16 +18727,16 @@
         <v>2024896</v>
       </c>
       <c r="E357" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F357" s="0" t="s">
         <v>1160</v>
-      </c>
-      <c r="F357" s="0" t="s">
-        <v>1161</v>
       </c>
       <c r="G357" s="0" t="s">
         <v>719</v>
       </c>
       <c r="H357" s="0" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19461,13 +18747,13 @@
         <v>787</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G358" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H358" s="0" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19475,16 +18761,16 @@
         <v>2026724</v>
       </c>
       <c r="E359" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F359" s="0" t="s">
         <v>1165</v>
-      </c>
-      <c r="F359" s="0" t="s">
-        <v>1166</v>
       </c>
       <c r="G359" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H359" s="0" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19492,16 +18778,16 @@
         <v>1932716</v>
       </c>
       <c r="E360" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F360" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="F360" s="0" t="s">
+      <c r="G360" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="G360" s="0" t="s">
+      <c r="H360" s="0" t="s">
         <v>1170</v>
-      </c>
-      <c r="H360" s="0" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19509,16 +18795,16 @@
         <v>2562117</v>
       </c>
       <c r="E361" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F361" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="F361" s="0" t="s">
+      <c r="G361" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H361" s="0" t="s">
         <v>1173</v>
-      </c>
-      <c r="G361" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H361" s="0" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19526,16 +18812,16 @@
         <v>2026724</v>
       </c>
       <c r="E362" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F362" s="0" t="s">
         <v>1175</v>
-      </c>
-      <c r="F362" s="0" t="s">
-        <v>1176</v>
       </c>
       <c r="G362" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H362" s="0" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19546,13 +18832,13 @@
         <v>764</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G363" s="0" t="s">
         <v>766</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19560,16 +18846,16 @@
         <v>913108</v>
       </c>
       <c r="E364" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F364" s="0" t="s">
         <v>1180</v>
-      </c>
-      <c r="F364" s="0" t="s">
-        <v>1181</v>
       </c>
       <c r="G364" s="0" t="s">
         <v>613</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19577,16 +18863,16 @@
         <v>2026724</v>
       </c>
       <c r="E365" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F365" s="0" t="s">
         <v>1183</v>
-      </c>
-      <c r="F365" s="0" t="s">
-        <v>1184</v>
       </c>
       <c r="G365" s="0" t="s">
         <v>605</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -19608,10 +18894,10 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.47"/>
@@ -19624,32 +18910,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="80" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>1186</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="81" t="s">
         <v>1187</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="D1" s="81" t="s">
         <v>1188</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="E1" s="81" t="s">
         <v>1189</v>
       </c>
-      <c r="E1" s="82" t="s">
-        <v>1190</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="n">
+      <c r="A2" s="82" t="n">
         <v>2495592</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2033014</v>
       </c>
-      <c r="C2" s="83" t="n">
+      <c r="C2" s="82" t="n">
         <v>1123227</v>
       </c>
-      <c r="D2" s="83" t="n">
+      <c r="D2" s="82" t="n">
         <v>1645732</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -19657,16 +18943,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="n">
+      <c r="A3" s="82" t="n">
         <v>2512129</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1642931</v>
       </c>
-      <c r="C3" s="83" t="n">
+      <c r="C3" s="82" t="n">
         <v>2689391</v>
       </c>
-      <c r="D3" s="83" t="n">
+      <c r="D3" s="82" t="n">
         <v>1798452</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -19674,16 +18960,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="n">
+      <c r="A4" s="82" t="n">
         <v>1566270</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>685828</v>
       </c>
-      <c r="C4" s="83" t="n">
+      <c r="C4" s="82" t="n">
         <v>2689393</v>
       </c>
-      <c r="D4" s="83" t="n">
+      <c r="D4" s="82" t="n">
         <v>1825860</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -19691,16 +18977,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="n">
+      <c r="A5" s="82" t="n">
         <v>1869339</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1120992</v>
       </c>
-      <c r="C5" s="83" t="n">
+      <c r="C5" s="82" t="n">
         <v>1974866</v>
       </c>
-      <c r="D5" s="83" t="n">
+      <c r="D5" s="82" t="n">
         <v>1895771</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -19708,13 +18994,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="n">
+      <c r="A6" s="82" t="n">
         <v>1157708</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1879010</v>
       </c>
-      <c r="D6" s="83" t="n">
+      <c r="C6" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D6" s="82" t="n">
         <v>1948671</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -19722,13 +19011,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="n">
+      <c r="A7" s="82" t="n">
         <v>1855728</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2099669</v>
       </c>
-      <c r="D7" s="83" t="n">
+      <c r="D7" s="82" t="n">
         <v>1948687</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -19736,13 +19025,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="83" t="n">
+      <c r="A8" s="82" t="n">
         <v>1566271</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1303518</v>
       </c>
-      <c r="D8" s="83" t="n">
+      <c r="D8" s="82" t="n">
         <v>2013808</v>
       </c>
       <c r="E8" s="0" t="n">
@@ -19750,13 +19039,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="83" t="n">
+      <c r="A9" s="82" t="n">
         <v>34073</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>157466</v>
       </c>
-      <c r="D9" s="83" t="n">
+      <c r="D9" s="82" t="n">
         <v>2026749</v>
       </c>
       <c r="E9" s="0" t="n">
@@ -19764,13 +19053,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83" t="n">
+      <c r="A10" s="82" t="n">
         <v>2587117</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2282151</v>
       </c>
-      <c r="D10" s="83" t="n">
+      <c r="D10" s="82" t="n">
         <v>2053306</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -19778,13 +19067,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="n">
+      <c r="A11" s="82" t="n">
         <v>2126319</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>77133</v>
       </c>
-      <c r="D11" s="83" t="n">
+      <c r="D11" s="82" t="n">
         <v>2447898</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -19792,13 +19081,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="83" t="n">
+      <c r="A12" s="82" t="n">
         <v>1775474</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1946326</v>
       </c>
-      <c r="D12" s="83" t="n">
+      <c r="D12" s="82" t="n">
         <v>2507565</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -19806,13 +19095,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="83" t="n">
+      <c r="A13" s="82" t="n">
         <v>1882825</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2219043</v>
       </c>
-      <c r="D13" s="83" t="n">
+      <c r="D13" s="82" t="n">
         <v>2268192</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -19820,7 +19109,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="n">
+      <c r="A14" s="82" t="n">
         <v>434008</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -19831,7 +19120,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="n">
+      <c r="A15" s="82" t="n">
         <v>1246301</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -19842,7 +19131,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="83" t="n">
+      <c r="A16" s="82" t="n">
         <v>2512152</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -19853,7 +19142,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="n">
+      <c r="A17" s="82" t="n">
         <v>1882774</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -19861,7 +19150,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83" t="n">
+      <c r="A18" s="82" t="n">
         <v>1884385</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -19869,7 +19158,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83" t="n">
+      <c r="A19" s="82" t="n">
         <v>1895865</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -19877,7 +19166,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83" t="n">
+      <c r="A20" s="82" t="n">
         <v>1380385</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -19885,15 +19174,15 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83" t="n">
+      <c r="A21" s="82" t="n">
         <v>1795631</v>
       </c>
-      <c r="E21" s="83" t="n">
+      <c r="E21" s="82" t="n">
         <v>326427</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="83" t="n">
+      <c r="A22" s="82" t="n">
         <v>2135734</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -19901,7 +19190,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="83" t="n">
+      <c r="A23" s="82" t="n">
         <v>2496119</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -19909,7 +19198,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83" t="n">
+      <c r="A24" s="82" t="n">
         <v>1862326</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -19917,7 +19206,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="83" t="n">
+      <c r="A25" s="82" t="n">
         <v>1882828</v>
       </c>
       <c r="E25" s="0" t="n">
@@ -19925,7 +19214,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="83" t="n">
+      <c r="A26" s="82" t="n">
         <v>1882827</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -19933,7 +19222,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="83" t="n">
+      <c r="A27" s="82" t="n">
         <v>1321609</v>
       </c>
       <c r="E27" s="0" t="n">
@@ -19941,7 +19230,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="83" t="n">
+      <c r="A28" s="82" t="n">
         <v>2496117</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -19949,7 +19238,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="83" t="n">
+      <c r="A29" s="82" t="n">
         <v>436515</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -19957,7 +19246,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="83" t="n">
+      <c r="A30" s="82" t="n">
         <v>2762323</v>
       </c>
       <c r="E30" s="0" t="n">
@@ -19965,7 +19254,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="83" t="n">
+      <c r="A31" s="82" t="n">
         <v>1736513</v>
       </c>
       <c r="E31" s="0" t="n">
@@ -19973,7 +19262,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="83" t="n">
+      <c r="A32" s="82" t="n">
         <v>54067</v>
       </c>
       <c r="E32" s="0" t="n">
@@ -19981,7 +19270,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="83" t="n">
+      <c r="A33" s="82" t="n">
         <v>2587028</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -19989,7 +19278,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="83" t="n">
+      <c r="A34" s="82" t="n">
         <v>1735686</v>
       </c>
       <c r="E34" s="0" t="n">
@@ -19997,7 +19286,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="83" t="n">
+      <c r="A35" s="82" t="n">
         <v>1851577</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -20005,7 +19294,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="83" t="n">
+      <c r="A36" s="82" t="n">
         <v>2035212</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -20013,7 +19302,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="83" t="n">
+      <c r="A37" s="82" t="n">
         <v>595537</v>
       </c>
       <c r="E37" s="0" t="n">
@@ -20021,7 +19310,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="83" t="n">
+      <c r="A38" s="82" t="n">
         <v>1736530</v>
       </c>
       <c r="E38" s="0" t="n">
@@ -20029,7 +19318,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="83" t="n">
+      <c r="A39" s="82" t="n">
         <v>1105204</v>
       </c>
       <c r="E39" s="0" t="n">
@@ -20037,7 +19326,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="83" t="n">
+      <c r="A40" s="82" t="n">
         <v>1034889</v>
       </c>
       <c r="E40" s="0" t="n">
@@ -20045,7 +19334,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="83" t="n">
+      <c r="A41" s="82" t="n">
         <v>1736541</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -20053,7 +19342,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="83" t="n">
+      <c r="A42" s="82" t="n">
         <v>1321611</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -20061,7 +19350,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="83" t="n">
+      <c r="A43" s="82" t="n">
         <v>2485130</v>
       </c>
       <c r="E43" s="0" t="n">
@@ -20069,7 +19358,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="83" t="n">
+      <c r="A44" s="82" t="n">
         <v>2495593</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -20077,7 +19366,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="83" t="n">
+      <c r="A45" s="82" t="n">
         <v>363844</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -20085,7 +19374,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="83" t="n">
+      <c r="A46" s="82" t="n">
         <v>2762322</v>
       </c>
       <c r="E46" s="0" t="n">
@@ -20093,7 +19382,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="83" t="n">
+      <c r="A47" s="82" t="n">
         <v>1882826</v>
       </c>
       <c r="E47" s="0" t="n">
@@ -20101,7 +19390,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="83" t="n">
+      <c r="A48" s="82" t="n">
         <v>2653183</v>
       </c>
       <c r="E48" s="0" t="n">
@@ -20109,7 +19398,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="83" t="n">
+      <c r="A49" s="82" t="n">
         <v>2135502</v>
       </c>
       <c r="E49" s="0" t="n">
@@ -20117,7 +19406,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="83" t="n">
+      <c r="A50" s="82" t="n">
         <v>2587118</v>
       </c>
       <c r="E50" s="0" t="n">
@@ -20125,7 +19414,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="83" t="n">
+      <c r="A51" s="82" t="n">
         <v>1882775</v>
       </c>
       <c r="E51" s="0" t="n">
@@ -20133,7 +19422,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="83" t="n">
+      <c r="A52" s="82" t="n">
         <v>2030806</v>
       </c>
       <c r="E52" s="0" t="n">
@@ -20141,7 +19430,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="83" t="n">
+      <c r="A53" s="82" t="n">
         <v>1144315</v>
       </c>
       <c r="E53" s="0" t="n">
@@ -20149,7 +19438,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="83" t="n">
+      <c r="A54" s="82" t="n">
         <v>1747220</v>
       </c>
       <c r="E54" s="0" t="n">
@@ -20157,7 +19446,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="83" t="n">
+      <c r="A55" s="82" t="n">
         <v>2135732</v>
       </c>
       <c r="E55" s="0" t="n">
@@ -20165,7 +19454,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="83" t="n">
+      <c r="A56" s="82" t="n">
         <v>1321610</v>
       </c>
       <c r="E56" s="0" t="n">
@@ -20173,7 +19462,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="83" t="n">
+      <c r="A57" s="82" t="n">
         <v>2153358</v>
       </c>
       <c r="E57" s="0" t="n">
@@ -20181,7 +19470,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="83" t="n">
+      <c r="A58" s="82" t="n">
         <v>662548</v>
       </c>
       <c r="E58" s="0" t="n">
@@ -20189,7 +19478,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="83" t="n">
+      <c r="A59" s="82" t="n">
         <v>1871043</v>
       </c>
       <c r="E59" s="0" t="n">
@@ -20202,13 +19491,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="83"/>
+      <c r="A61" s="82"/>
       <c r="E61" s="0" t="n">
         <v>1951432</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="83"/>
+      <c r="A62" s="82"/>
       <c r="E62" s="0" t="n">
         <v>2614247</v>
       </c>
@@ -20424,13 +19713,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="118.82"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -20491,35 +19785,116 @@
       <c r="A12" s="0" t="n">
         <v>357808</v>
       </c>
+      <c r="I12" s="83" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>926550</v>
       </c>
+      <c r="I13" s="84" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>1129897</v>
       </c>
+      <c r="I14" s="84" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>1380346</v>
       </c>
+      <c r="I15" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>1839801</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2496868</v>
       </c>
+      <c r="I17" s="84" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2528176</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
